--- a/data/ITA2_100_2020_ClosingBalances.xlsx
+++ b/data/ITA2_100_2020_ClosingBalances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.shell.com/personal/hamid_mahmudov_shell_com/Documents/_DS/___PROJECTS/FoC Accounting Data 101/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC1048D6B15B55DC5ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA76F846-1476-4E3B-8B43-06045F386EB2}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC1048D6B15B55DC5ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC0069A4-2D04-4DFE-91E3-399E8581E006}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>-70693</v>
+        <v>-70692</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
